--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>19.74850912635533</v>
+        <v>0.326253242802</v>
       </c>
       <c r="R2">
-        <v>177.736582137198</v>
+        <v>2.936279185218</v>
       </c>
       <c r="S2">
-        <v>0.006125148965970325</v>
+        <v>0.0001705704970692389</v>
       </c>
       <c r="T2">
-        <v>0.006125148965970325</v>
+        <v>0.000170570497069239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>11.36552103400778</v>
+        <v>1.543235010115</v>
       </c>
       <c r="R3">
-        <v>102.28968930607</v>
+        <v>13.889115091035</v>
       </c>
       <c r="S3">
-        <v>0.003525102019790521</v>
+        <v>0.0008068283414112133</v>
       </c>
       <c r="T3">
-        <v>0.003525102019790521</v>
+        <v>0.0008068283414112133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>12.27467350145089</v>
+        <v>1.666681697080999</v>
       </c>
       <c r="R4">
-        <v>110.472061513058</v>
+        <v>15.000135273729</v>
       </c>
       <c r="S4">
-        <v>0.003807082510582955</v>
+        <v>0.000871368275410031</v>
       </c>
       <c r="T4">
-        <v>0.003807082510582955</v>
+        <v>0.0008713682754100311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>1389.300088996308</v>
+        <v>169.0339220397833</v>
       </c>
       <c r="R5">
-        <v>12503.70080096678</v>
+        <v>1521.30529835805</v>
       </c>
       <c r="S5">
-        <v>0.4309018948767964</v>
+        <v>0.08837368130433211</v>
       </c>
       <c r="T5">
-        <v>0.4309018948767964</v>
+        <v>0.08837368130433212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>799.5600722569862</v>
+        <v>799.5600722569861</v>
       </c>
       <c r="R6">
-        <v>7196.040650312876</v>
+        <v>7196.040650312874</v>
       </c>
       <c r="S6">
-        <v>0.24798958333924</v>
+        <v>0.4180229989142493</v>
       </c>
       <c r="T6">
-        <v>0.24798958333924</v>
+        <v>0.4180229989142493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>863.5186017767807</v>
+        <v>863.5186017767804</v>
       </c>
       <c r="R7">
-        <v>7771.667415991025</v>
+        <v>7771.667415991024</v>
       </c>
       <c r="S7">
-        <v>0.2678268033767938</v>
+        <v>0.45146155749627</v>
       </c>
       <c r="T7">
-        <v>0.2678268033767938</v>
+        <v>0.4514615574962701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N8">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q8">
-        <v>58.441906717747</v>
+        <v>7.110533413354001</v>
       </c>
       <c r="R8">
-        <v>525.977160459723</v>
+        <v>63.99480072018601</v>
       </c>
       <c r="S8">
-        <v>0.01812619789226622</v>
+        <v>0.003717502417222837</v>
       </c>
       <c r="T8">
-        <v>0.01812619789226622</v>
+        <v>0.003717502417222838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.261295</v>
       </c>
       <c r="O9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q9">
-        <v>33.63406907418834</v>
+        <v>33.63406907418833</v>
       </c>
       <c r="R9">
-        <v>302.7066216676951</v>
+        <v>302.706621667695</v>
       </c>
       <c r="S9">
-        <v>0.01043186005044827</v>
+        <v>0.01758443787768614</v>
       </c>
       <c r="T9">
-        <v>0.01043186005044826</v>
+        <v>0.01758443787768614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N10">
         <v>3.522173</v>
       </c>
       <c r="O10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q10">
         <v>36.32453058470367</v>
@@ -1066,10 +1066,10 @@
         <v>326.920775262333</v>
       </c>
       <c r="S10">
-        <v>0.0112663269681116</v>
+        <v>0.01899105487634925</v>
       </c>
       <c r="T10">
-        <v>0.0112663269681116</v>
+        <v>0.01899105487634925</v>
       </c>
     </row>
   </sheetData>
